--- a/Tweets/De 20210215-20210221/CuentasPersonales_02_21.xlsx
+++ b/Tweets/De 20210215-20210221/CuentasPersonales_02_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monts\OneDrive\Escritorio\TFM\Tweets\De 20210215-20210221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B62A0E1-C343-4457-A55E-22A3D1983B06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43635F62-FFB1-4431-BFA1-142124322504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF58887-62AE-4C2D-AEED-F14E478D214C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D38CA0C-1E73-484F-8EA3-141B8A015C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{FB7566ED-6864-4E1A-9370-60D08D643FD1}" name="CuentasPersonales_02_21" type="4" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{BF6441A1-8B1B-4AB3-BE89-EC3EEACFE76E}" name="CuentasPersonales_02_21" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\monts\OneDrive\Escritorio\TFM\Tweets\De 20210215-20210221\CuentasPersonales_02_21.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -3670,25 +3670,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B11F32EA-35D0-4D76-8F30-6FB082959376}" name="Tabla1" displayName="Tabla1" ref="A1:F517" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F517" xr:uid="{6AC44050-C601-4A7C-8221-CA2947903BA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{732CB0D5-DA0C-402A-8698-1C2F2CE8C26D}" name="Tabla1" displayName="Tabla1" ref="A1:F517" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F517" xr:uid="{EE74385E-99AF-4644-9FDF-D1CA40FF98B0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{04ED2B87-276D-47CC-AA77-A2E72A3D6432}" uniqueName="user_id" name="user_id">
+    <tableColumn id="1" xr3:uid="{8F4C978F-CCA9-4C3C-B6F9-F2A03FF9EECF}" uniqueName="user_id" name="user_id">
       <xmlColumnPr mapId="1" xpath="/document/row/user_id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0E3E0D67-362C-4256-9EF9-83493F29843D}" uniqueName="status_id" name="status_id">
+    <tableColumn id="2" xr3:uid="{0EA52BA7-9992-417A-9EFC-3531F51064F9}" uniqueName="status_id" name="status_id">
       <xmlColumnPr mapId="1" xpath="/document/row/status_id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5089151F-6F96-448D-BDD1-A5B66651F057}" uniqueName="created_at" name="created_at">
+    <tableColumn id="3" xr3:uid="{BCFA1826-4C2D-47C4-8873-20D964814E33}" uniqueName="created_at" name="created_at">
       <xmlColumnPr mapId="1" xpath="/document/row/created_at" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A51FE04-C9E9-446E-9D74-F24418D20C85}" uniqueName="screen_name" name="screen_name">
+    <tableColumn id="4" xr3:uid="{6D3AB964-9754-4924-81AA-C969D2B3C98E}" uniqueName="screen_name" name="screen_name">
       <xmlColumnPr mapId="1" xpath="/document/row/screen_name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{43641250-181D-4FB0-B98A-CA1DE43FF63F}" uniqueName="text" name="text">
+    <tableColumn id="5" xr3:uid="{4352C788-E9D2-49F5-B885-DD19451986EE}" uniqueName="text" name="text">
       <xmlColumnPr mapId="1" xpath="/document/row/text" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{30A20ADF-C4E0-4A21-AB9B-8840A593C497}" uniqueName="retweet_count" name="retweet_count">
+    <tableColumn id="6" xr3:uid="{148C5F9E-0103-444F-8529-8088F83CB18E}" uniqueName="retweet_count" name="retweet_count">
       <xmlColumnPr mapId="1" xpath="/document/row/retweet_count" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:F517"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="C517" sqref="C517"/>
+      <selection activeCell="D517" sqref="D517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4046,7 +4046,7 @@
         <v>528</v>
       </c>
       <c r="F2">
-        <v>2407</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4066,7 +4066,7 @@
         <v>529</v>
       </c>
       <c r="F3">
-        <v>2992</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
         <v>530</v>
       </c>
       <c r="F4">
-        <v>1466</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
         <v>531</v>
       </c>
       <c r="F5">
-        <v>2114</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
         <v>532</v>
       </c>
       <c r="F6">
-        <v>4114</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>534</v>
       </c>
       <c r="F8">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>535</v>
       </c>
       <c r="F9">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
         <v>532</v>
       </c>
       <c r="F13">
-        <v>4114</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4306,7 +4306,7 @@
         <v>540</v>
       </c>
       <c r="F15">
-        <v>2656</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
@@ -4346,7 +4346,7 @@
         <v>542</v>
       </c>
       <c r="F17">
-        <v>3152</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4446,7 +4446,7 @@
         <v>547</v>
       </c>
       <c r="F22">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -4486,7 +4486,7 @@
         <v>549</v>
       </c>
       <c r="F24">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
@@ -4946,7 +4946,7 @@
         <v>569</v>
       </c>
       <c r="F47">
-        <v>2207</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -5046,7 +5046,7 @@
         <v>569</v>
       </c>
       <c r="F52">
-        <v>2207</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -5406,7 +5406,7 @@
         <v>589</v>
       </c>
       <c r="F70">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -5426,7 +5426,7 @@
         <v>590</v>
       </c>
       <c r="F71">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -5926,7 +5926,7 @@
         <v>615</v>
       </c>
       <c r="F96">
-        <v>2439</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5946,7 +5946,7 @@
         <v>616</v>
       </c>
       <c r="F97">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6026,7 +6026,7 @@
         <v>620</v>
       </c>
       <c r="F101">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6246,7 +6246,7 @@
         <v>631</v>
       </c>
       <c r="F112">
-        <v>225573</v>
+        <v>225580</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
         <v>642</v>
       </c>
       <c r="F123">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,7 +6886,7 @@
         <v>663</v>
       </c>
       <c r="F144">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
         <v>667</v>
       </c>
       <c r="F148">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -7326,7 +7326,7 @@
         <v>685</v>
       </c>
       <c r="F166">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -7646,7 +7646,7 @@
         <v>701</v>
       </c>
       <c r="F182">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -7666,7 +7666,7 @@
         <v>702</v>
       </c>
       <c r="F183">
-        <v>2218</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>704</v>
       </c>
       <c r="F185">
-        <v>2386</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -7726,7 +7726,7 @@
         <v>705</v>
       </c>
       <c r="F186">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -7746,7 +7746,7 @@
         <v>706</v>
       </c>
       <c r="F187">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -7826,7 +7826,7 @@
         <v>710</v>
       </c>
       <c r="F191">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -7866,7 +7866,7 @@
         <v>712</v>
       </c>
       <c r="F193">
-        <v>7800</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -7906,7 +7906,7 @@
         <v>714</v>
       </c>
       <c r="F195">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -8126,7 +8126,7 @@
         <v>725</v>
       </c>
       <c r="F206">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
@@ -8146,7 +8146,7 @@
         <v>726</v>
       </c>
       <c r="F207">
-        <v>4212</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8626,7 +8626,7 @@
         <v>750</v>
       </c>
       <c r="F231">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
@@ -8986,7 +8986,7 @@
         <v>768</v>
       </c>
       <c r="F249">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -9026,7 +9026,7 @@
         <v>770</v>
       </c>
       <c r="F251">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -10086,7 +10086,7 @@
         <v>823</v>
       </c>
       <c r="F304">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
@@ -10326,7 +10326,7 @@
         <v>835</v>
       </c>
       <c r="F316">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -11606,7 +11606,7 @@
         <v>899</v>
       </c>
       <c r="F380">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -12526,7 +12526,7 @@
         <v>945</v>
       </c>
       <c r="F426">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -12986,7 +12986,7 @@
         <v>968</v>
       </c>
       <c r="F449">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -13106,7 +13106,7 @@
         <v>974</v>
       </c>
       <c r="F455">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -13806,7 +13806,7 @@
         <v>1009</v>
       </c>
       <c r="F490">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -13886,7 +13886,7 @@
         <v>1013</v>
       </c>
       <c r="F494">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -13906,7 +13906,7 @@
         <v>1014</v>
       </c>
       <c r="F495">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
